--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840577.1270104191</v>
+        <v>834140.6024348325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10387025.41111797</v>
+        <v>10386435.43172755</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>351.2583451058399</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -671,13 +671,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>103.92658082636</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>43.66266530373277</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968088</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.8893309611007</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>88.8301960341196</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.4936335121085</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>38.90558416130099</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>68.66992483201541</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968088</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.0531088355544</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.74086563202125</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>298.3390416644457</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>77.64320647842673</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1045920014104</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.26505552992262</v>
+        <v>9.66288906867176</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>49.98545012839382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>154.4530159486394</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>309.9848018816966</v>
       </c>
       <c r="D14" t="n">
-        <v>3.370746718305709</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>1.060877678137092</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>185.650465643322</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,7 +2378,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838881</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828894</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431726</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459967</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643939</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193185</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908577</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147791</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804995</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922188</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736778</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920511</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -4034,13 +4034,13 @@
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879333</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.28822402635</v>
+        <v>1224.909970779227</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.11272252928</v>
+        <v>1224.909970779227</v>
       </c>
       <c r="D2" t="n">
-        <v>1381.11272252928</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>978.5291976458245</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>561.6347591758023</v>
+        <v>50.62559822793126</v>
       </c>
       <c r="G2" t="n">
-        <v>148.4720036638054</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>148.4720036638054</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793348</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978637</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207956</v>
+        <v>1028.526606934765</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845418</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737746</v>
+        <v>1595.90900581094</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737746</v>
+        <v>1595.90900581094</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737746</v>
+        <v>1224.909970779227</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737746</v>
+        <v>1224.909970779227</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737746</v>
+        <v>1224.909970779227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569813</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653852</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1706.251474293499</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1483.711472664566</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1253.594226797853</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1064.287149147865</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>884.9729322233723</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.0790475026638</v>
+        <v>583.330228098702</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865298</v>
+        <v>583.330228098702</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865298</v>
+        <v>583.330228098702</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865298</v>
+        <v>427.7714159579045</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865298</v>
+        <v>270.4454811708775</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865298</v>
+        <v>270.4454811708775</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865298</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="W4" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="X4" t="n">
-        <v>652.3991273773217</v>
+        <v>583.330228098702</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.2870661939651</v>
+        <v>583.330228098702</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.993982160106</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.993982160106</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>50.62559822793126</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>681.4657240221119</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032204</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465276</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678797</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678797</v>
+        <v>1869.350212898075</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678797</v>
+        <v>1613.597483332674</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.269414678797</v>
+        <v>1613.597483332674</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.270379647085</v>
+        <v>1242.598448300961</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.270379647085</v>
+        <v>853.1458432340178</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.270379647085</v>
+        <v>456.6551341546188</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>790.1729724046131</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>639.5187419647053</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>509.4297745861857</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>372.9832836970734</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>248.5514775802052</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172764</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182856</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1669.540969100527</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1940.231660716793</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915702</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1763.247848915702</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1540.707847286769</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1310.590601420055</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1121.283523770067</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>941.9693068455745</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.2186373540756</v>
+        <v>520.7946638361965</v>
       </c>
       <c r="C7" t="n">
-        <v>512.0135194200648</v>
+        <v>520.7946638361965</v>
       </c>
       <c r="D7" t="n">
-        <v>356.3804063225795</v>
+        <v>520.7946638361965</v>
       </c>
       <c r="E7" t="n">
-        <v>200.821594181782</v>
+        <v>365.235851695399</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475493</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475493</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>743.9067250195532</v>
       </c>
       <c r="Y7" t="n">
-        <v>867.4266560453768</v>
+        <v>520.7946638361965</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>954.3407662179543</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>551.7572413344988</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>134.8628028644765</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>125.7404513928838</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>125.7404513928838</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>1905.389306738351</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
         <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>839.5634350659138</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243226</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1645.302650055463</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312599</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3018.819965478581</v>
+        <v>3096.195891197017</v>
       </c>
       <c r="T11" t="n">
-        <v>2867.115638184192</v>
+        <v>3096.195891197017</v>
       </c>
       <c r="U11" t="n">
-        <v>2683.159183764984</v>
+        <v>2912.239436777809</v>
       </c>
       <c r="V11" t="n">
-        <v>2412.848649614697</v>
+        <v>2912.239436777809</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.645889729178</v>
+        <v>2613.036676892291</v>
       </c>
       <c r="X11" t="n">
-        <v>1795.989559808429</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808429</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.7094745562807</v>
+        <v>644.2874133903774</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7094745562807</v>
+        <v>545.8785706025606</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562807</v>
+        <v>462.0417326512692</v>
       </c>
       <c r="E13" t="n">
-        <v>208.946937561677</v>
+        <v>378.2791956566655</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>292.7495360158323</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>196.291757261472</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>112.60948136916</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
@@ -5224,25 +5224,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>1152.070316531345</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840476</v>
+        <v>957.8872464983632</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614194</v>
+        <v>957.8872464983632</v>
       </c>
       <c r="X13" t="n">
-        <v>557.4370041385511</v>
+        <v>795.6031994275402</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.1212181013882</v>
+        <v>644.2874133903774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1722.982659195497</v>
+        <v>1706.131836264811</v>
       </c>
       <c r="C14" t="n">
-        <v>1401.603432844621</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>403.4856080699187</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W14" t="n">
-        <v>2376.375563693905</v>
+        <v>2352.486636750763</v>
       </c>
       <c r="X14" t="n">
-        <v>2376.375563693905</v>
+        <v>2034.830306830014</v>
       </c>
       <c r="Y14" t="n">
-        <v>2051.6811297607</v>
+        <v>2034.830306830014</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.7345522742318</v>
+        <v>374.6989287590507</v>
       </c>
       <c r="C16" t="n">
-        <v>208.3257094864148</v>
+        <v>374.6989287590507</v>
       </c>
       <c r="D16" t="n">
-        <v>124.4888715351235</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E16" t="n">
-        <v>124.4888715351235</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457729</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127909</v>
+        <v>748.5171027525022</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901624</v>
+        <v>536.9829758298737</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193392</v>
+        <v>374.6989287590507</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.1462958193392</v>
+        <v>374.6989287590507</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5923,13 +5923,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2416.016209023993</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985342</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517121</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225738</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904111</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628626</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102265</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286441</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988155</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026471</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388008</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958359</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6543,13 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6598,22 +6598,22 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6625,10 +6625,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108114</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955955</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230573</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468657</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513237</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150699</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1982.2617145</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965122</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431904</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>507.0483151386147</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465407</v>
+        <v>693.3398934768787</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041636</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1039.234294549796</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1270.762580901357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395509</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000931</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124409</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584488</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7014,13 +7014,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,13 +7108,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924224</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7576,13 +7576,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
         <v>1087.158956162812</v>
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7685,7 +7685,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7798,34 +7798,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>276.247644678813</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>648.4150197390384</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>210.3493810476996</v>
+        <v>574.4602701392419</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>575.4067826843217</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>335.0568768916752</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.0974448753136</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>292.7025382365984</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465423</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>577.006990218999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10191,7 +10191,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>656.2283997181321</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>457.616862805975</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.505051583705439</v>
+        <v>84.10721804495624</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10.69971858616712</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>6.208190651475434</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.180632205670129</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1376583824613</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.6134853662878</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>6.590773689330085</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912530.5920317117</v>
+        <v>912229.8182248316</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>912530.5920317117</v>
+        <v>912229.8182248315</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809699.4101141591</v>
+        <v>809699.4101141592</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809699.410114159</v>
+        <v>809699.4101141593</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914565.1834589405</v>
+        <v>914565.1834589404</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360664.3561867135</v>
+        <v>360664.3561867136</v>
       </c>
       <c r="C2" t="n">
         <v>360664.3561867136</v>
       </c>
       <c r="D2" t="n">
-        <v>360664.3561867134</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="E2" t="n">
         <v>318718.0468488015</v>
       </c>
       <c r="F2" t="n">
-        <v>318718.0468488015</v>
+        <v>318718.0468488016</v>
       </c>
       <c r="G2" t="n">
         <v>360664.3561867138</v>
       </c>
       <c r="H2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="I2" t="n">
+        <v>360664.3561867137</v>
+      </c>
+      <c r="J2" t="n">
         <v>360664.3561867136</v>
-      </c>
-      <c r="J2" t="n">
-        <v>360664.3561867137</v>
       </c>
       <c r="K2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="L2" t="n">
-        <v>360664.3561867143</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="M2" t="n">
+        <v>360664.3561867138</v>
+      </c>
+      <c r="N2" t="n">
         <v>360664.3561867137</v>
       </c>
-      <c r="N2" t="n">
-        <v>360664.3561867138</v>
-      </c>
       <c r="O2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="P2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728566</v>
+        <v>62456.2417753966</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892387</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892387</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713761</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66300.69803439462</v>
+        <v>-62851.5736407404</v>
       </c>
       <c r="C6" t="n">
-        <v>115904.2502574612</v>
+        <v>111007.0833933149</v>
       </c>
       <c r="D6" t="n">
-        <v>110464.7082816367</v>
+        <v>102728.4190582457</v>
       </c>
       <c r="E6" t="n">
-        <v>66420.67715902234</v>
+        <v>66210.94561233261</v>
       </c>
       <c r="F6" t="n">
-        <v>178543.2386330668</v>
+        <v>178333.5070863773</v>
       </c>
       <c r="G6" t="n">
-        <v>120321.5563270356</v>
+        <v>120321.5563270359</v>
       </c>
       <c r="H6" t="n">
-        <v>167746.8818637177</v>
+        <v>167746.8818637176</v>
       </c>
       <c r="I6" t="n">
-        <v>167746.8818637175</v>
+        <v>167746.8818637176</v>
       </c>
       <c r="J6" t="n">
-        <v>-45295.03573356773</v>
+        <v>-38778.75057899492</v>
       </c>
       <c r="K6" t="n">
-        <v>161507.1134609346</v>
+        <v>161507.1134609347</v>
       </c>
       <c r="L6" t="n">
-        <v>106324.524526314</v>
+        <v>102275.6873158411</v>
       </c>
       <c r="M6" t="n">
-        <v>125546.0524040945</v>
+        <v>124494.3573929066</v>
       </c>
       <c r="N6" t="n">
-        <v>167746.8818637177</v>
+        <v>167746.8818637176</v>
       </c>
       <c r="O6" t="n">
-        <v>139979.1878209466</v>
+        <v>139979.1878209464</v>
       </c>
       <c r="P6" t="n">
-        <v>167746.8818637177</v>
+        <v>167746.8818637176</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660708</v>
+        <v>78.07030221924575</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407324</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>30.32837238965902</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>33.02716491209983</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>106.615705792819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862718</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>59.03443456702026</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>142.9093229607271</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.99616474217436</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>182.3600122548765</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>50.18929491683879</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>3.734814143721735</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.1400749395018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>83.24767583105319</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>59.31053926003308</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28014,19 +28014,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>172.3925060467237</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634528316</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29098,7 +29098,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
         <v>130.3599693155844</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566244</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893522</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253918</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224747</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995757</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344366</v>
+        <v>498.6899681413112</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>117.9622589983877</v>
+        <v>482.07314808993</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>426.2882913465376</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>185.4930394675788</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.7103228260017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>200.0149793477095</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>93.70171839237568</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184312</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009055</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851016</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>570.8562868639655</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917514</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238013</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273772</v>
+        <v>43.49509683160194</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>372.2447499518083</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.754502987498</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>110.3251060326272</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>7.697989841835579</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
